--- a/output/teste-msc-anterior-atual.xlsx
+++ b/output/teste-msc-anterior-atual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>conta_contabil</t>
   </si>
@@ -34,9 +34,6 @@
     <t>nat_atual</t>
   </si>
   <si>
-    <t>PO:10131 FP:2</t>
-  </si>
-  <si>
     <t>PO:10131 NR:11130311 FR:1500</t>
   </si>
   <si>
@@ -49,10 +46,10 @@
     <t>PO:10131 NR:11125001 FR:1500 CO:1002</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -410,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,19 +435,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>123910103</v>
+        <v>621200000</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>203.83</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>86433.95</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,36 +461,36 @@
         <v>7</v>
       </c>
       <c r="C3">
+        <v>86433.95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>86433.95</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>621200000</v>
+        <v>621320000</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>86433.95</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3779.93</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -501,36 +501,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4724.92</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>3779.93</v>
+        <v>944.99</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>621320000</v>
-      </c>
-      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6">
-        <v>4724.92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>944.99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
